--- a/DJA75O_0318/DJA75Ogyak6.xlsx
+++ b/DJA75O_0318/DJA75Ogyak6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ata egyetem\github\DJA75OOsGyak\DJA75O_0318\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\DJA75OOsGyak\DJA75O_0318\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="82">
   <si>
     <t>P1</t>
   </si>
@@ -252,6 +252,24 @@
   </si>
   <si>
     <t>SJF</t>
+  </si>
+  <si>
+    <t>Maradék</t>
+  </si>
+  <si>
+    <t>30/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Körülfordulási idő átlaga: </t>
+  </si>
+  <si>
+    <t>CPU kihasználtság:</t>
+  </si>
+  <si>
+    <t>113/4</t>
+  </si>
+  <si>
+    <t>99,1 %</t>
   </si>
 </sst>
 </file>
@@ -296,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -455,15 +473,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -474,17 +539,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,6 +559,56 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -782,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ32"/>
+  <dimension ref="A1:BQ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,1041 +904,1847 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
     </row>
     <row r="3" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>8</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>12</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>20</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
     </row>
     <row r="4" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>26</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="11"/>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
     </row>
     <row r="5" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>22</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>48</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="10"/>
-      <c r="BA5" s="10"/>
-      <c r="BB5" s="10"/>
-      <c r="BC5" s="10"/>
-      <c r="BD5" s="10"/>
-      <c r="BE5" s="10"/>
-      <c r="BF5" s="10"/>
-      <c r="BG5" s="11"/>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="11"/>
-      <c r="BJ5" s="11"/>
-      <c r="BK5" s="11"/>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="11"/>
-      <c r="BN5" s="11"/>
-      <c r="BO5" s="11"/>
-      <c r="BP5" s="11"/>
-      <c r="BQ5" s="11"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="37"/>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="37"/>
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="37"/>
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="37"/>
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="37"/>
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="37"/>
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="37"/>
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
+      <c r="BJ5" s="36"/>
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
+      <c r="BM5" s="36"/>
+      <c r="BN5" s="36"/>
+      <c r="BO5" s="36"/>
+      <c r="BP5" s="36"/>
+      <c r="BQ5" s="36"/>
     </row>
     <row r="6" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>15</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>22</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>48</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>0</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>7</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>10</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" t="s">
+      <c r="K9" s="39"/>
+      <c r="L9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X9" t="s">
+      <c r="X9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Y9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AE9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AF9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AH9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AK9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AL9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AM9" t="s">
+      <c r="AM9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AN9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AO9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AP9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ9" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AR9" t="s">
+      <c r="AR9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AS9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AT9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AU9" t="s">
+      <c r="AU9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AV9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AW9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AX9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AY9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ9" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BA9" t="s">
+      <c r="BA9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BB9" t="s">
+      <c r="BB9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BC9" t="s">
+      <c r="BC9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BD9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BE9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BF9" t="s">
+      <c r="BF9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BG9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BH9" t="s">
+      <c r="BH9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI9" t="s">
+      <c r="BI9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="BJ9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BK9" t="s">
+      <c r="BK9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BL9" t="s">
+      <c r="BL9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BM9" t="s">
+      <c r="BM9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BN9" t="s">
+      <c r="BN9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BO9" t="s">
+      <c r="BO9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BP9" t="s">
+      <c r="BP9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BQ9" t="s">
+      <c r="BQ9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>12</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>20</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+      <c r="BE10" s="4"/>
+      <c r="BF10" s="4"/>
+      <c r="BG10" s="4"/>
+      <c r="BH10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
     </row>
     <row r="11" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>15</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>7</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>26</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>10</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="6"/>
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="6"/>
     </row>
     <row r="12" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>15</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>22</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>48</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
-      <c r="AP12" s="11"/>
-      <c r="AQ12" s="11"/>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
-      <c r="AV12" s="11"/>
-      <c r="AW12" s="11"/>
-      <c r="AX12" s="11"/>
-      <c r="AY12" s="11"/>
-      <c r="AZ12" s="11"/>
-      <c r="BA12" s="11"/>
-      <c r="BB12" s="11"/>
-      <c r="BC12" s="11"/>
-      <c r="BD12" s="11"/>
-      <c r="BE12" s="11"/>
-      <c r="BF12" s="11"/>
-      <c r="BG12" s="11"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
+      <c r="BN12" s="6"/>
+      <c r="BO12" s="6"/>
+      <c r="BP12" s="6"/>
+      <c r="BQ12" s="6"/>
     </row>
     <row r="13" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>22</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>48</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>58</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10"/>
-      <c r="AN13" s="10"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="AZ13" s="10"/>
-      <c r="BA13" s="10"/>
-      <c r="BB13" s="10"/>
-      <c r="BC13" s="10"/>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
-      <c r="BF13" s="10"/>
-      <c r="BG13" s="11"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="11"/>
-      <c r="BJ13" s="11"/>
-      <c r="BK13" s="11"/>
-      <c r="BL13" s="11"/>
-      <c r="BM13" s="11"/>
-      <c r="BN13" s="11"/>
-      <c r="BO13" s="11"/>
-      <c r="BP13" s="11"/>
-      <c r="BQ13" s="11"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="37"/>
+      <c r="AJ13" s="37"/>
+      <c r="AK13" s="37"/>
+      <c r="AL13" s="37"/>
+      <c r="AM13" s="37"/>
+      <c r="AN13" s="37"/>
+      <c r="AO13" s="37"/>
+      <c r="AP13" s="37"/>
+      <c r="AQ13" s="37"/>
+      <c r="AR13" s="37"/>
+      <c r="AS13" s="37"/>
+      <c r="AT13" s="37"/>
+      <c r="AU13" s="37"/>
+      <c r="AV13" s="37"/>
+      <c r="AW13" s="37"/>
+      <c r="AX13" s="37"/>
+      <c r="AY13" s="37"/>
+      <c r="AZ13" s="37"/>
+      <c r="BA13" s="37"/>
+      <c r="BB13" s="37"/>
+      <c r="BC13" s="37"/>
+      <c r="BD13" s="37"/>
+      <c r="BE13" s="37"/>
+      <c r="BF13" s="37"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
+      <c r="BI13" s="36"/>
+      <c r="BJ13" s="36"/>
+      <c r="BK13" s="36"/>
+      <c r="BL13" s="36"/>
+      <c r="BM13" s="36"/>
+      <c r="BN13" s="36"/>
+      <c r="BO13" s="36"/>
+      <c r="BP13" s="36"/>
+      <c r="BQ13" s="36"/>
     </row>
     <row r="14" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>0</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>10</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>0</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>12</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>26</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>0</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>15</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>22</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="15">
         <v>15</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="16">
         <v>22</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="16">
         <v>48</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="16">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="17">
         <v>0</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="18">
         <v>7</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>10</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="13"/>
+    </row>
+    <row r="25" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="J26" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="39"/>
+      <c r="L26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="J27" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="47"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+    </row>
+    <row r="28" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>0</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>7</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>11</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="J28" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="6"/>
+      <c r="BA28" s="6"/>
+      <c r="BB28" s="6"/>
+      <c r="BC28" s="6"/>
+      <c r="BD28" s="6"/>
+      <c r="BE28" s="6"/>
+      <c r="BF28" s="6"/>
+    </row>
+    <row r="29" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>14</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>8</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>36</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
+      <c r="AH29" s="37"/>
+      <c r="AI29" s="37"/>
+      <c r="AJ29" s="37"/>
+      <c r="AK29" s="37"/>
+      <c r="AL29" s="37"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="37"/>
+      <c r="AO29" s="37"/>
+      <c r="AP29" s="37"/>
+      <c r="AQ29" s="37"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="36"/>
+      <c r="AW29" s="36"/>
+      <c r="AX29" s="36"/>
+      <c r="AY29" s="36"/>
+      <c r="AZ29" s="36"/>
+      <c r="BA29" s="36"/>
+      <c r="BB29" s="36"/>
+      <c r="BC29" s="36"/>
+      <c r="BD29" s="36"/>
+      <c r="BE29" s="36"/>
+      <c r="BF29" s="36"/>
+    </row>
+    <row r="30" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="5">
+        <v>14</v>
+      </c>
+      <c r="C30" s="6">
+        <v>15</v>
+      </c>
+      <c r="D30" s="6">
+        <v>47</v>
+      </c>
+      <c r="E30" s="6">
+        <v>37</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="24"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="24"/>
+      <c r="AR30" s="24"/>
+      <c r="AS30" s="24"/>
+      <c r="AT30" s="24"/>
+      <c r="AU30" s="24"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="6"/>
+      <c r="BF30" s="6"/>
+    </row>
+    <row r="31" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="9"/>
+      <c r="B31" s="5">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>26</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="23">
+        <v>4</v>
+      </c>
+      <c r="C32" s="24">
+        <v>7</v>
+      </c>
+      <c r="D32" s="24">
+        <v>37</v>
+      </c>
+      <c r="E32" s="24">
+        <v>20</v>
+      </c>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="26">
+        <v>4</v>
+      </c>
+      <c r="C33" s="27">
+        <v>0</v>
+      </c>
+      <c r="D33" s="24">
+        <v>26</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="32"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="32"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="32"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="32"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="32"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="32"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="32"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="32"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="32"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="32"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="32"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="32"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="32"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="32"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="32"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="32"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="32"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="32"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="32"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="32"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="32"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="32"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="32"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="32"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="32"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="32"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="32"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A26:E26"/>

--- a/DJA75O_0318/DJA75Ogyak6.xlsx
+++ b/DJA75O_0318/DJA75Ogyak6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="82">
   <si>
     <t>P1</t>
   </si>
@@ -892,7 +892,7 @@
   <dimension ref="A1:BQ74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,8 +2012,186 @@
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -2029,8 +2207,72 @@
       <c r="E17" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
+      <c r="BP17" s="4"/>
+      <c r="BQ17" s="4"/>
+    </row>
+    <row r="18" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2046,8 +2288,72 @@
       <c r="E18" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="6"/>
+      <c r="BO18" s="6"/>
+      <c r="BP18" s="6"/>
+      <c r="BQ18" s="6"/>
+    </row>
+    <row r="19" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -2063,8 +2369,70 @@
       <c r="E19" s="6">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36"/>
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="36"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
+      <c r="BL19" s="6"/>
+      <c r="BM19" s="6"/>
+      <c r="BN19" s="6"/>
+      <c r="BO19" s="6"/>
+      <c r="BP19" s="6"/>
+      <c r="BQ19" s="6"/>
+    </row>
+    <row r="20" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -2080,8 +2448,70 @@
       <c r="E20" s="16">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="37"/>
+      <c r="AL20" s="37"/>
+      <c r="AM20" s="37"/>
+      <c r="AN20" s="37"/>
+      <c r="AO20" s="37"/>
+      <c r="AP20" s="37"/>
+      <c r="AQ20" s="37"/>
+      <c r="AR20" s="37"/>
+      <c r="AS20" s="37"/>
+      <c r="AT20" s="37"/>
+      <c r="AU20" s="37"/>
+      <c r="AV20" s="37"/>
+      <c r="AW20" s="37"/>
+      <c r="AX20" s="37"/>
+      <c r="AY20" s="37"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="37"/>
+      <c r="BE20" s="37"/>
+      <c r="BF20" s="37"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
+    </row>
+    <row r="21" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -2098,7 +2528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>10</v>
       </c>
@@ -2106,14 +2536,14 @@
       <c r="C22" s="21"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="25" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>12</v>
       </c>
@@ -2267,7 +2697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2337,7 +2767,7 @@
       <c r="BE27" s="4"/>
       <c r="BF27" s="4"/>
     </row>
-    <row r="28" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -2407,7 +2837,7 @@
       <c r="BE28" s="6"/>
       <c r="BF28" s="6"/>
     </row>
-    <row r="29" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2475,7 +2905,7 @@
       <c r="BE29" s="36"/>
       <c r="BF29" s="36"/>
     </row>
-    <row r="30" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -2543,7 +2973,7 @@
       <c r="BE30" s="6"/>
       <c r="BF30" s="6"/>
     </row>
-    <row r="31" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -2560,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>6</v>
       </c>
@@ -2740,11 +3170,12 @@
       <c r="D74" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A26:E26"/>

--- a/DJA75O_0318/DJA75Ogyak6.xlsx
+++ b/DJA75O_0318/DJA75Ogyak6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\DJA75OOsGyak\DJA75O_0318\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ata egyetem\github\DJA75OOsGyak\DJA75O_0318\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
   <si>
     <t>P1</t>
   </si>
@@ -62,9 +62,6 @@
     <t>45/4</t>
   </si>
   <si>
-    <t>2. Feladat</t>
-  </si>
-  <si>
     <t>RR: 10ms</t>
   </si>
   <si>
@@ -252,24 +249,6 @@
   </si>
   <si>
     <t>SJF</t>
-  </si>
-  <si>
-    <t>Maradék</t>
-  </si>
-  <si>
-    <t>30/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Körülfordulási idő átlaga: </t>
-  </si>
-  <si>
-    <t>CPU kihasználtság:</t>
-  </si>
-  <si>
-    <t>113/4</t>
-  </si>
-  <si>
-    <t>99,1 %</t>
   </si>
 </sst>
 </file>
@@ -294,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +292,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -475,19 +460,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -527,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -538,7 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -559,6 +530,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,47 +553,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -892,7 +843,7 @@
   <dimension ref="A1:BQ74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,195 +855,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="J1" s="39" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="39"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="2" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>74</v>
+      <c r="A2" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1106,70 +1057,70 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="40" t="s">
-        <v>72</v>
+      <c r="J2" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="44"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
+      <c r="BF2" s="26"/>
+      <c r="BG2" s="26"/>
+      <c r="BH2" s="26"/>
+      <c r="BI2" s="26"/>
+      <c r="BJ2" s="26"/>
+      <c r="BK2" s="26"/>
+      <c r="BL2" s="26"/>
+      <c r="BM2" s="26"/>
+      <c r="BN2" s="26"/>
+      <c r="BO2" s="26"/>
+      <c r="BP2" s="26"/>
+      <c r="BQ2" s="26"/>
     </row>
     <row r="3" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1187,34 +1138,34 @@
       <c r="E3" s="4">
         <v>20</v>
       </c>
-      <c r="J3" s="41" t="s">
-        <v>73</v>
+      <c r="J3" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="38"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -1272,7 +1223,7 @@
       <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="38"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1283,43 +1234,43 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
       <c r="BH4" s="6"/>
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
@@ -1351,7 +1302,7 @@
       <c r="K5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="38"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1370,45 +1321,45 @@
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
-      <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
-      <c r="AZ5" s="37"/>
-      <c r="BA5" s="37"/>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="37"/>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="37"/>
-      <c r="BF5" s="37"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="36"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20"/>
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="20"/>
+      <c r="BB5" s="20"/>
+      <c r="BC5" s="20"/>
+      <c r="BD5" s="20"/>
+      <c r="BE5" s="20"/>
+      <c r="BF5" s="20"/>
+      <c r="BG5" s="19"/>
+      <c r="BH5" s="19"/>
+      <c r="BI5" s="19"/>
+      <c r="BJ5" s="19"/>
+      <c r="BK5" s="19"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="19"/>
+      <c r="BP5" s="19"/>
+      <c r="BQ5" s="19"/>
     </row>
     <row r="6" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1428,13 +1379,13 @@
       </c>
     </row>
     <row r="7" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>7</v>
       </c>
       <c r="D7" s="6">
@@ -1445,18 +1396,18 @@
       </c>
     </row>
     <row r="8" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>75</v>
+      <c r="A9" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -1470,183 +1421,183 @@
       <c r="E9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="39"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AG9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AH9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH9" s="1" t="s">
+      <c r="AI9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ9" s="1" t="s">
+      <c r="AK9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AK9" s="1" t="s">
+      <c r="AL9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AM9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AN9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AO9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AR9" s="1" t="s">
+      <c r="AS9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AT9" s="1" t="s">
+      <c r="AU9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AV9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AV9" s="1" t="s">
+      <c r="AW9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AW9" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AX9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AY9" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ9" s="1" t="s">
+      <c r="BA9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BA9" s="1" t="s">
+      <c r="BB9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BB9" s="1" t="s">
+      <c r="BC9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BC9" s="1" t="s">
+      <c r="BD9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BD9" s="1" t="s">
+      <c r="BE9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BE9" s="1" t="s">
+      <c r="BF9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BG9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BG9" s="1" t="s">
+      <c r="BH9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BH9" s="1" t="s">
+      <c r="BI9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI9" s="1" t="s">
+      <c r="BJ9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ9" s="1" t="s">
+      <c r="BK9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BK9" s="1" t="s">
+      <c r="BL9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BL9" s="1" t="s">
+      <c r="BM9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BM9" s="1" t="s">
+      <c r="BN9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BN9" s="1" t="s">
+      <c r="BO9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BO9" s="1" t="s">
+      <c r="BP9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BP9" s="1" t="s">
+      <c r="BQ9" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1665,27 +1616,27 @@
       <c r="E10" s="4">
         <v>20</v>
       </c>
-      <c r="J10" s="40" t="s">
-        <v>72</v>
+      <c r="J10" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -1746,8 +1697,8 @@
       <c r="E11" s="6">
         <v>10</v>
       </c>
-      <c r="J11" s="41" t="s">
-        <v>73</v>
+      <c r="J11" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>1</v>
@@ -1759,21 +1710,21 @@
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
@@ -1842,43 +1793,43 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="36"/>
-      <c r="AU12" s="36"/>
-      <c r="AV12" s="36"/>
-      <c r="AW12" s="36"/>
-      <c r="AX12" s="36"/>
-      <c r="AY12" s="36"/>
-      <c r="AZ12" s="36"/>
-      <c r="BA12" s="36"/>
-      <c r="BB12" s="36"/>
-      <c r="BC12" s="36"/>
-      <c r="BD12" s="36"/>
-      <c r="BE12" s="36"/>
-      <c r="BF12" s="36"/>
-      <c r="BG12" s="36"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="19"/>
+      <c r="BF12" s="19"/>
+      <c r="BG12" s="19"/>
       <c r="BH12" s="6"/>
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
@@ -1929,54 +1880,54 @@
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="37"/>
-      <c r="BD13" s="37"/>
-      <c r="BE13" s="37"/>
-      <c r="BF13" s="37"/>
-      <c r="BG13" s="36"/>
-      <c r="BH13" s="36"/>
-      <c r="BI13" s="36"/>
-      <c r="BJ13" s="36"/>
-      <c r="BK13" s="36"/>
-      <c r="BL13" s="36"/>
-      <c r="BM13" s="36"/>
-      <c r="BN13" s="36"/>
-      <c r="BO13" s="36"/>
-      <c r="BP13" s="36"/>
-      <c r="BQ13" s="36"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="20"/>
+      <c r="AM13" s="20"/>
+      <c r="AN13" s="20"/>
+      <c r="AO13" s="20"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="20"/>
+      <c r="BA13" s="20"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="20"/>
+      <c r="BF13" s="20"/>
+      <c r="BG13" s="19"/>
+      <c r="BH13" s="19"/>
+      <c r="BI13" s="19"/>
+      <c r="BJ13" s="19"/>
+      <c r="BK13" s="19"/>
+      <c r="BL13" s="19"/>
+      <c r="BM13" s="19"/>
+      <c r="BN13" s="19"/>
+      <c r="BO13" s="19"/>
+      <c r="BP13" s="19"/>
+      <c r="BQ13" s="19"/>
     </row>
     <row r="14" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>0</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>7</v>
       </c>
       <c r="D14" s="6">
@@ -1987,18 +1938,18 @@
       </c>
     </row>
     <row r="15" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>13</v>
+      <c r="A16" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -2012,183 +1963,183 @@
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="39"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD16" s="1" t="s">
+      <c r="AE16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AF16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AG16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AH16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH16" s="1" t="s">
+      <c r="AI16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AI16" s="1" t="s">
+      <c r="AJ16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ16" s="1" t="s">
+      <c r="AK16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AK16" s="1" t="s">
+      <c r="AL16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AM16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AM16" s="1" t="s">
+      <c r="AN16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AN16" s="1" t="s">
+      <c r="AO16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AP16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AQ16" s="1" t="s">
+      <c r="AR16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AR16" s="1" t="s">
+      <c r="AS16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AS16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AT16" s="1" t="s">
+      <c r="AU16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AU16" s="1" t="s">
+      <c r="AV16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AV16" s="1" t="s">
+      <c r="AW16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AW16" s="1" t="s">
+      <c r="AX16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AX16" s="1" t="s">
+      <c r="AY16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AY16" s="1" t="s">
+      <c r="AZ16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AZ16" s="1" t="s">
+      <c r="BA16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BA16" s="1" t="s">
+      <c r="BB16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BB16" s="1" t="s">
+      <c r="BC16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BC16" s="1" t="s">
+      <c r="BD16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BD16" s="1" t="s">
+      <c r="BE16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BE16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BF16" s="1" t="s">
+      <c r="BG16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BG16" s="1" t="s">
+      <c r="BH16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BH16" s="1" t="s">
+      <c r="BI16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI16" s="1" t="s">
+      <c r="BJ16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BJ16" s="1" t="s">
+      <c r="BK16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BK16" s="1" t="s">
+      <c r="BL16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BL16" s="1" t="s">
+      <c r="BM16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BM16" s="1" t="s">
+      <c r="BN16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BN16" s="1" t="s">
+      <c r="BO16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BO16" s="1" t="s">
+      <c r="BP16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BP16" s="1" t="s">
+      <c r="BQ16" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="BQ16" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2207,27 +2158,27 @@
       <c r="E17" s="4">
         <v>20</v>
       </c>
-      <c r="J17" s="40" t="s">
-        <v>72</v>
+      <c r="J17" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -2288,8 +2239,8 @@
       <c r="E18" s="6">
         <v>10</v>
       </c>
-      <c r="J18" s="41" t="s">
-        <v>73</v>
+      <c r="J18" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>1</v>
@@ -2301,21 +2252,21 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
@@ -2384,43 +2335,43 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="36"/>
-      <c r="BA19" s="36"/>
-      <c r="BB19" s="36"/>
-      <c r="BC19" s="36"/>
-      <c r="BD19" s="36"/>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="36"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="19"/>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BE19" s="19"/>
+      <c r="BF19" s="19"/>
+      <c r="BG19" s="19"/>
       <c r="BH19" s="6"/>
       <c r="BI19" s="6"/>
       <c r="BJ19" s="6"/>
@@ -2436,16 +2387,16 @@
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>15</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>22</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>48</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>58</v>
       </c>
       <c r="J20" s="1"/>
@@ -2471,718 +2422,982 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
-      <c r="AS20" s="37"/>
-      <c r="AT20" s="37"/>
-      <c r="AU20" s="37"/>
-      <c r="AV20" s="37"/>
-      <c r="AW20" s="37"/>
-      <c r="AX20" s="37"/>
-      <c r="AY20" s="37"/>
-      <c r="AZ20" s="37"/>
-      <c r="BA20" s="37"/>
-      <c r="BB20" s="37"/>
-      <c r="BC20" s="37"/>
-      <c r="BD20" s="37"/>
-      <c r="BE20" s="37"/>
-      <c r="BF20" s="37"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="36"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+      <c r="AT20" s="20"/>
+      <c r="AU20" s="20"/>
+      <c r="AV20" s="20"/>
+      <c r="AW20" s="20"/>
+      <c r="AX20" s="20"/>
+      <c r="AY20" s="20"/>
+      <c r="AZ20" s="20"/>
+      <c r="BA20" s="20"/>
+      <c r="BB20" s="20"/>
+      <c r="BC20" s="20"/>
+      <c r="BD20" s="20"/>
+      <c r="BE20" s="20"/>
+      <c r="BF20" s="20"/>
+      <c r="BG20" s="19"/>
+      <c r="BH20" s="19"/>
+      <c r="BI20" s="19"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="19"/>
+      <c r="BL20" s="19"/>
+      <c r="BM20" s="19"/>
+      <c r="BN20" s="19"/>
+      <c r="BO20" s="19"/>
+      <c r="BP20" s="19"/>
+      <c r="BQ20" s="19"/>
     </row>
     <row r="21" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>0</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>7</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>10</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="25" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="J26" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="39"/>
-      <c r="L26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BB26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="46"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="46"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
-      <c r="BF27" s="4"/>
-    </row>
-    <row r="28" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>7</v>
-      </c>
-      <c r="D28" s="4">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4">
-        <v>20</v>
-      </c>
-      <c r="J28" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="36"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="6"/>
-      <c r="AD28" s="6"/>
-      <c r="AE28" s="6"/>
-      <c r="AF28" s="6"/>
-      <c r="AG28" s="6"/>
-      <c r="AH28" s="6"/>
-      <c r="AI28" s="6"/>
-      <c r="AJ28" s="6"/>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-      <c r="AO28" s="6"/>
-      <c r="AP28" s="6"/>
-      <c r="AQ28" s="6"/>
-      <c r="AR28" s="6"/>
-      <c r="AS28" s="6"/>
-      <c r="AT28" s="6"/>
-      <c r="AU28" s="6"/>
-      <c r="AV28" s="6"/>
-      <c r="AW28" s="6"/>
-      <c r="AX28" s="6"/>
-      <c r="AY28" s="6"/>
-      <c r="AZ28" s="6"/>
-      <c r="BA28" s="6"/>
-      <c r="BB28" s="6"/>
-      <c r="BC28" s="6"/>
-      <c r="BD28" s="6"/>
-      <c r="BE28" s="6"/>
-      <c r="BF28" s="6"/>
-    </row>
-    <row r="29" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5">
-        <v>14</v>
-      </c>
-      <c r="C29" s="6">
-        <v>8</v>
-      </c>
-      <c r="D29" s="6">
-        <v>36</v>
-      </c>
-      <c r="E29" s="6">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="37"/>
-      <c r="Z29" s="37"/>
-      <c r="AA29" s="37"/>
-      <c r="AB29" s="37"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="37"/>
-      <c r="AE29" s="37"/>
-      <c r="AF29" s="37"/>
-      <c r="AG29" s="37"/>
-      <c r="AH29" s="37"/>
-      <c r="AI29" s="37"/>
-      <c r="AJ29" s="37"/>
-      <c r="AK29" s="37"/>
-      <c r="AL29" s="37"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="37"/>
-      <c r="AO29" s="37"/>
-      <c r="AP29" s="37"/>
-      <c r="AQ29" s="37"/>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="36"/>
-      <c r="AW29" s="36"/>
-      <c r="AX29" s="36"/>
-      <c r="AY29" s="36"/>
-      <c r="AZ29" s="36"/>
-      <c r="BA29" s="36"/>
-      <c r="BB29" s="36"/>
-      <c r="BC29" s="36"/>
-      <c r="BD29" s="36"/>
-      <c r="BE29" s="36"/>
-      <c r="BF29" s="36"/>
-    </row>
-    <row r="30" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="5">
-        <v>14</v>
-      </c>
-      <c r="C30" s="6">
-        <v>15</v>
-      </c>
-      <c r="D30" s="6">
-        <v>47</v>
-      </c>
-      <c r="E30" s="6">
-        <v>37</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AD30" s="6"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="36"/>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="24"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-      <c r="AS30" s="24"/>
-      <c r="AT30" s="24"/>
-      <c r="AU30" s="24"/>
-      <c r="AV30" s="6"/>
-      <c r="AW30" s="6"/>
-      <c r="AX30" s="6"/>
-      <c r="AY30" s="6"/>
-      <c r="AZ30" s="6"/>
-      <c r="BA30" s="6"/>
-      <c r="BB30" s="6"/>
-      <c r="BC30" s="6"/>
-      <c r="BD30" s="6"/>
-      <c r="BE30" s="6"/>
-      <c r="BF30" s="6"/>
-    </row>
-    <row r="31" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="5">
-        <v>4</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>26</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:69" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="23">
-        <v>4</v>
-      </c>
-      <c r="C32" s="24">
-        <v>7</v>
-      </c>
-      <c r="D32" s="24">
-        <v>37</v>
-      </c>
-      <c r="E32" s="24">
-        <v>20</v>
-      </c>
-      <c r="K32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="26">
-        <v>4</v>
-      </c>
-      <c r="C33" s="27">
-        <v>0</v>
-      </c>
-      <c r="D33" s="24">
-        <v>26</v>
-      </c>
-      <c r="E33" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="32"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="32"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="32"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="32"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="32"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="33"/>
+      <c r="AM24" s="33"/>
+      <c r="AN24" s="33"/>
+      <c r="AO24" s="33"/>
+      <c r="AP24" s="33"/>
+      <c r="AQ24" s="33"/>
+      <c r="AR24" s="33"/>
+      <c r="AS24" s="33"/>
+      <c r="AT24" s="33"/>
+      <c r="AU24" s="33"/>
+      <c r="AV24" s="33"/>
+      <c r="AW24" s="33"/>
+      <c r="AX24" s="33"/>
+      <c r="AY24" s="33"/>
+      <c r="AZ24" s="33"/>
+      <c r="BA24" s="33"/>
+      <c r="BB24" s="33"/>
+      <c r="BC24" s="33"/>
+      <c r="BD24" s="33"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="33"/>
+    </row>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="33"/>
+      <c r="AM25" s="33"/>
+      <c r="AN25" s="33"/>
+      <c r="AO25" s="33"/>
+      <c r="AP25" s="33"/>
+      <c r="AQ25" s="33"/>
+      <c r="AR25" s="33"/>
+      <c r="AS25" s="33"/>
+      <c r="AT25" s="33"/>
+      <c r="AU25" s="33"/>
+      <c r="AV25" s="33"/>
+      <c r="AW25" s="33"/>
+      <c r="AX25" s="33"/>
+      <c r="AY25" s="33"/>
+      <c r="AZ25" s="33"/>
+      <c r="BA25" s="33"/>
+      <c r="BB25" s="33"/>
+      <c r="BC25" s="33"/>
+      <c r="BD25" s="33"/>
+      <c r="BE25" s="33"/>
+      <c r="BF25" s="33"/>
+    </row>
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="33"/>
+      <c r="AM26" s="33"/>
+      <c r="AN26" s="33"/>
+      <c r="AO26" s="33"/>
+      <c r="AP26" s="33"/>
+      <c r="AQ26" s="33"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="33"/>
+      <c r="AT26" s="33"/>
+      <c r="AU26" s="33"/>
+      <c r="AV26" s="33"/>
+      <c r="AW26" s="33"/>
+      <c r="AX26" s="33"/>
+      <c r="AY26" s="33"/>
+      <c r="AZ26" s="33"/>
+      <c r="BA26" s="33"/>
+      <c r="BB26" s="33"/>
+      <c r="BC26" s="33"/>
+      <c r="BD26" s="33"/>
+      <c r="BE26" s="33"/>
+      <c r="BF26" s="33"/>
+    </row>
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="33"/>
+      <c r="AP27" s="33"/>
+      <c r="AQ27" s="33"/>
+      <c r="AR27" s="33"/>
+      <c r="AS27" s="33"/>
+      <c r="AT27" s="33"/>
+      <c r="AU27" s="33"/>
+      <c r="AV27" s="33"/>
+      <c r="AW27" s="33"/>
+      <c r="AX27" s="33"/>
+      <c r="AY27" s="33"/>
+      <c r="AZ27" s="33"/>
+      <c r="BA27" s="33"/>
+      <c r="BB27" s="33"/>
+      <c r="BC27" s="33"/>
+      <c r="BD27" s="33"/>
+      <c r="BE27" s="33"/>
+      <c r="BF27" s="33"/>
+    </row>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="33"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="33"/>
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="33"/>
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="33"/>
+      <c r="AY28" s="33"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="33"/>
+      <c r="BB28" s="33"/>
+      <c r="BC28" s="33"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="33"/>
+    </row>
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="38"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="38"/>
+      <c r="AL29" s="38"/>
+      <c r="AM29" s="38"/>
+      <c r="AN29" s="38"/>
+      <c r="AO29" s="38"/>
+      <c r="AP29" s="38"/>
+      <c r="AQ29" s="38"/>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="38"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="38"/>
+      <c r="BE29" s="38"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="39"/>
+      <c r="BH29" s="39"/>
+    </row>
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="33"/>
+      <c r="AD30" s="33"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="35"/>
+      <c r="AP30" s="35"/>
+      <c r="AQ30" s="35"/>
+      <c r="AR30" s="35"/>
+      <c r="AS30" s="35"/>
+      <c r="AT30" s="35"/>
+      <c r="AU30" s="35"/>
+      <c r="AV30" s="33"/>
+      <c r="AW30" s="33"/>
+      <c r="AX30" s="33"/>
+      <c r="AY30" s="33"/>
+      <c r="AZ30" s="33"/>
+      <c r="BA30" s="33"/>
+      <c r="BB30" s="33"/>
+      <c r="BC30" s="33"/>
+      <c r="BD30" s="33"/>
+      <c r="BE30" s="33"/>
+      <c r="BF30" s="33"/>
+    </row>
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="33"/>
+      <c r="AM31" s="33"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="33"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="33"/>
+      <c r="AR31" s="33"/>
+      <c r="AS31" s="33"/>
+      <c r="AT31" s="33"/>
+      <c r="AU31" s="33"/>
+      <c r="AV31" s="33"/>
+      <c r="AW31" s="33"/>
+      <c r="AX31" s="33"/>
+      <c r="AY31" s="33"/>
+      <c r="AZ31" s="33"/>
+      <c r="BA31" s="33"/>
+      <c r="BB31" s="33"/>
+      <c r="BC31" s="33"/>
+      <c r="BD31" s="33"/>
+      <c r="BE31" s="33"/>
+      <c r="BF31" s="33"/>
+    </row>
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="33"/>
+      <c r="AL32" s="33"/>
+      <c r="AM32" s="33"/>
+      <c r="AN32" s="33"/>
+      <c r="AO32" s="33"/>
+      <c r="AP32" s="33"/>
+      <c r="AQ32" s="33"/>
+      <c r="AR32" s="33"/>
+      <c r="AS32" s="33"/>
+      <c r="AT32" s="33"/>
+      <c r="AU32" s="33"/>
+      <c r="AV32" s="33"/>
+      <c r="AW32" s="33"/>
+      <c r="AX32" s="33"/>
+      <c r="AY32" s="33"/>
+      <c r="AZ32" s="33"/>
+      <c r="BA32" s="33"/>
+      <c r="BB32" s="33"/>
+      <c r="BC32" s="33"/>
+      <c r="BD32" s="33"/>
+      <c r="BE32" s="33"/>
+      <c r="BF32" s="33"/>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="33"/>
+      <c r="AM33" s="33"/>
+      <c r="AN33" s="33"/>
+      <c r="AO33" s="33"/>
+      <c r="AP33" s="33"/>
+      <c r="AQ33" s="33"/>
+      <c r="AR33" s="33"/>
+      <c r="AS33" s="33"/>
+      <c r="AT33" s="33"/>
+      <c r="AU33" s="33"/>
+      <c r="AV33" s="33"/>
+      <c r="AW33" s="33"/>
+      <c r="AX33" s="33"/>
+      <c r="AY33" s="33"/>
+      <c r="AZ33" s="33"/>
+      <c r="BA33" s="33"/>
+      <c r="BB33" s="33"/>
+      <c r="BC33" s="33"/>
+      <c r="BD33" s="33"/>
+      <c r="BE33" s="33"/>
+      <c r="BF33" s="33"/>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
+      <c r="AE34" s="33"/>
+      <c r="AF34" s="33"/>
+      <c r="AG34" s="33"/>
+      <c r="AH34" s="33"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="33"/>
+      <c r="AM34" s="33"/>
+      <c r="AN34" s="33"/>
+      <c r="AO34" s="33"/>
+      <c r="AP34" s="33"/>
+      <c r="AQ34" s="33"/>
+      <c r="AR34" s="33"/>
+      <c r="AS34" s="33"/>
+      <c r="AT34" s="33"/>
+      <c r="AU34" s="33"/>
+      <c r="AV34" s="33"/>
+      <c r="AW34" s="33"/>
+      <c r="AX34" s="33"/>
+      <c r="AY34" s="33"/>
+      <c r="AZ34" s="33"/>
+      <c r="BA34" s="33"/>
+      <c r="BB34" s="33"/>
+      <c r="BC34" s="33"/>
+      <c r="BD34" s="33"/>
+      <c r="BE34" s="33"/>
+      <c r="BF34" s="33"/>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="33"/>
+      <c r="AP35" s="33"/>
+      <c r="AQ35" s="33"/>
+      <c r="AR35" s="33"/>
+      <c r="AS35" s="33"/>
+      <c r="AT35" s="33"/>
+      <c r="AU35" s="33"/>
+      <c r="AV35" s="33"/>
+      <c r="AW35" s="33"/>
+      <c r="AX35" s="33"/>
+      <c r="AY35" s="33"/>
+      <c r="AZ35" s="33"/>
+      <c r="BA35" s="33"/>
+      <c r="BB35" s="33"/>
+      <c r="BC35" s="33"/>
+      <c r="BD35" s="33"/>
+      <c r="BE35" s="33"/>
+      <c r="BF35" s="33"/>
+    </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="33"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="33"/>
+      <c r="BC36" s="33"/>
+      <c r="BD36" s="33"/>
+      <c r="BE36" s="33"/>
+      <c r="BF36" s="33"/>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D38" s="18"/>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D45" s="18"/>
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="32"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="32"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="32"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="32"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="32"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="32"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="32"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="32"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="32"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="32"/>
+      <c r="D58" s="18"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D59" s="32"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D60" s="32"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D61" s="32"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D62" s="32"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D63" s="32"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D64" s="32"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D65" s="32"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="32"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="32"/>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="32"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="32"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="32"/>
+      <c r="D70" s="18"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="32"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="32"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="32"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="32"/>
+      <c r="D74" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="J16:K16"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A26:E26"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
